--- a/config_10.26/banner_style_ui.xlsx
+++ b/config_10.26/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -904,6 +904,18 @@
   </si>
   <si>
     <t>actp_own_task_p_crary_rebate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动弹窗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd","first_open_panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_come_back_courtesy</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1122,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4623,6 +4638,38 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>-2200</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N95"/>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4632,6 +4679,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4639,37 +4694,7 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4686,38 +4711,60 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>